--- a/Employee_Reports29/Haren Del Campo Q0282.xlsx
+++ b/Employee_Reports29/Haren Del Campo Q0282.xlsx
@@ -18,13 +18,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
     </font>
     <font>
       <b val="1"/>
@@ -68,7 +72,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -439,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,11 +563,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -608,11 +612,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -657,11 +661,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -706,11 +710,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -755,11 +759,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -775,36 +779,171 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
+          <t>Electronic Hydraulic Press (AMH Trainings)</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>AMH</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>LSME-AMH-M-011</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>EQUIPMENT MANUAL</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>13-Sep-2025</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>13-Sep-2027</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>725</v>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>17-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>DEMAG JIB Crane Manual (AMH Trainings)</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr"/>
+      <c r="D9" s="3" t="inlineStr"/>
+      <c r="E9" s="3" t="inlineStr"/>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>13-Sep-2025</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>13-Sep-2027</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>725</v>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>17-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Foam Packing Machine (AMH Trainings)</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>AMH</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>LSME-AMH-M-012</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>EQUIPMENT MANUAL</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>13-Sep-2025</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>13-Sep-2027</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>725</v>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>17-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
           <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr"/>
-      <c r="D8" s="3" t="inlineStr"/>
-      <c r="E8" s="3" t="inlineStr"/>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr"/>
+      <c r="D11" s="3" t="inlineStr"/>
+      <c r="E11" s="3" t="inlineStr"/>
+      <c r="F11" s="3" t="inlineStr">
         <is>
           <t>17-Mar-2025</t>
         </is>
       </c>
-      <c r="G8" s="3" t="inlineStr">
+      <c r="G11" s="3" t="inlineStr">
         <is>
           <t>17-Mar-2026</t>
         </is>
       </c>
-      <c r="H8" s="3" t="n">
-        <v>181</v>
-      </c>
-      <c r="I8" s="3" t="inlineStr">
-        <is>
-          <t>16-Sep-2025</t>
-        </is>
-      </c>
-      <c r="J8" s="3" t="inlineStr">
+      <c r="H11" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>17-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
         <is>
           <t>VALID</t>
         </is>
       </c>
-      <c r="K8" s="3" t="inlineStr"/>
+      <c r="K11" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
